--- a/Code/Results/Cases/Case_1_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.098359177368252</v>
+        <v>0.3879113849618818</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1041485087325213</v>
+        <v>0.1172343580438522</v>
       </c>
       <c r="E2">
-        <v>0.06320499124358037</v>
+        <v>0.1057905508343744</v>
       </c>
       <c r="F2">
-        <v>2.056940244630638</v>
+        <v>1.96894296796097</v>
       </c>
       <c r="G2">
-        <v>2.345144482349752</v>
+        <v>1.530350033841842</v>
       </c>
       <c r="H2">
-        <v>1.19010579126882</v>
+        <v>1.273064455531596</v>
       </c>
       <c r="I2">
-        <v>1.872789464698627</v>
+        <v>0.8633499675594578</v>
       </c>
       <c r="J2">
-        <v>0.05387296860066471</v>
+        <v>0.1217188450379609</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.83900663551492</v>
+        <v>2.260233900871953</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9533342298203138</v>
+        <v>0.3405351917551798</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09539037130436867</v>
+        <v>0.1146530764252347</v>
       </c>
       <c r="E3">
-        <v>0.0607106520758478</v>
+        <v>0.1056240535386408</v>
       </c>
       <c r="F3">
-        <v>1.801146676620064</v>
+        <v>1.943371581774969</v>
       </c>
       <c r="G3">
-        <v>2.021797479328285</v>
+        <v>1.481254045853518</v>
       </c>
       <c r="H3">
-        <v>1.050120372850898</v>
+        <v>1.259710399184684</v>
       </c>
       <c r="I3">
-        <v>1.653707781051423</v>
+        <v>0.7994885199162667</v>
       </c>
       <c r="J3">
-        <v>0.05355195577244132</v>
+        <v>0.123229407369859</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.073209440315452</v>
+        <v>2.02229958432261</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8647746126192999</v>
+        <v>0.3113372245960022</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09007338817647081</v>
+        <v>0.1130585181160626</v>
       </c>
       <c r="E4">
-        <v>0.05923270249708779</v>
+        <v>0.10556539109486</v>
       </c>
       <c r="F4">
-        <v>1.653119983167059</v>
+        <v>1.929666881113633</v>
       </c>
       <c r="G4">
-        <v>1.832760792558787</v>
+        <v>1.452789535650027</v>
       </c>
       <c r="H4">
-        <v>0.9690290860850439</v>
+        <v>1.252660551085398</v>
       </c>
       <c r="I4">
-        <v>1.52167298254659</v>
+        <v>0.7607132582971019</v>
       </c>
       <c r="J4">
-        <v>0.05357711473564564</v>
+        <v>0.1242616357717559</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.605363259321621</v>
+        <v>1.875782866712257</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8287788946136914</v>
+        <v>0.2994118902553851</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08791846463502395</v>
+        <v>0.1124062898826423</v>
       </c>
       <c r="E5">
-        <v>0.058643772048244</v>
+        <v>0.1055525014138894</v>
       </c>
       <c r="F5">
-        <v>1.594784696475202</v>
+        <v>1.924578857209497</v>
       </c>
       <c r="G5">
-        <v>1.757796078937957</v>
+        <v>1.441606713941752</v>
       </c>
       <c r="H5">
-        <v>0.937054900285375</v>
+        <v>1.250074157579064</v>
       </c>
       <c r="I5">
-        <v>1.468416267218331</v>
+        <v>0.745022342937034</v>
       </c>
       <c r="J5">
-        <v>0.05363973118793197</v>
+        <v>0.1247085946184008</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.415151671565084</v>
+        <v>1.815972396230194</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8228066520879338</v>
+        <v>0.2974300846073277</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08756126168667322</v>
+        <v>0.112297840723528</v>
       </c>
       <c r="E6">
-        <v>0.05854678286235426</v>
+        <v>0.1055510281983896</v>
       </c>
       <c r="F6">
-        <v>1.585210452173754</v>
+        <v>1.923763845841862</v>
       </c>
       <c r="G6">
-        <v>1.745464562359331</v>
+        <v>1.439774810771951</v>
       </c>
       <c r="H6">
-        <v>0.9318062138655705</v>
+        <v>1.249661915978663</v>
       </c>
       <c r="I6">
-        <v>1.459604093358479</v>
+        <v>0.7424235636032961</v>
       </c>
       <c r="J6">
-        <v>0.05365319422148929</v>
+        <v>0.1247844007682311</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.383589600692048</v>
+        <v>1.806034737224763</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8642888216162135</v>
+        <v>0.3111765037970997</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09004428258693054</v>
+        <v>0.1130497317988315</v>
       </c>
       <c r="E7">
-        <v>0.05922470610909869</v>
+        <v>0.1055651725769771</v>
       </c>
       <c r="F7">
-        <v>1.652325561238129</v>
+        <v>1.929596257751442</v>
       </c>
       <c r="G7">
-        <v>1.831741809896897</v>
+        <v>1.452637040770469</v>
       </c>
       <c r="H7">
-        <v>0.968593721075365</v>
+        <v>1.252624513548483</v>
       </c>
       <c r="I7">
-        <v>1.520952617289495</v>
+        <v>0.7605011974577565</v>
       </c>
       <c r="J7">
-        <v>0.05357775160958766</v>
+        <v>0.1242675570800671</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.602796408684682</v>
+        <v>1.874976657788153</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.048235090316922</v>
+        <v>0.3715988893716826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1011139105648482</v>
+        <v>0.1163463270003788</v>
       </c>
       <c r="E8">
-        <v>0.06233374497934108</v>
+        <v>0.105724135804639</v>
       </c>
       <c r="F8">
-        <v>1.966686443959418</v>
+        <v>1.959708466424516</v>
       </c>
       <c r="G8">
-        <v>2.231478484482636</v>
+        <v>1.513069330320747</v>
       </c>
       <c r="H8">
-        <v>1.140733506899863</v>
+        <v>1.268219797266482</v>
       </c>
       <c r="I8">
-        <v>1.796686852122875</v>
+        <v>0.8412404382323899</v>
       </c>
       <c r="J8">
-        <v>0.0537139266294524</v>
+        <v>0.1222179361956108</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.574372406877188</v>
+        <v>2.178283811443009</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.414311423138429</v>
+        <v>0.4892119223098348</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1234877345597596</v>
+        <v>0.122735172982253</v>
       </c>
       <c r="E9">
-        <v>0.06886139909600786</v>
+        <v>0.1063790465718206</v>
       </c>
       <c r="F9">
-        <v>2.669635787982145</v>
+        <v>2.034840746517204</v>
       </c>
       <c r="G9">
-        <v>3.107425105696763</v>
+        <v>1.645188320169922</v>
       </c>
       <c r="H9">
-        <v>1.524750844907913</v>
+        <v>1.308045399028856</v>
       </c>
       <c r="I9">
-        <v>2.360979485697484</v>
+        <v>1.003011091599475</v>
       </c>
       <c r="J9">
-        <v>0.0559224561035947</v>
+        <v>0.11903074198338</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7.506429522058397</v>
+        <v>2.769609403773728</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.68893847904522</v>
+        <v>0.5750832636003622</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.140652892374213</v>
+        <v>0.1273843823650793</v>
       </c>
       <c r="E10">
-        <v>0.07392658260823737</v>
+        <v>0.1070662689437363</v>
       </c>
       <c r="F10">
-        <v>3.263362664256874</v>
+        <v>2.100192732032156</v>
       </c>
       <c r="G10">
-        <v>3.834779304444282</v>
+        <v>1.750951288768334</v>
       </c>
       <c r="H10">
-        <v>1.848285351229492</v>
+        <v>1.343115504679076</v>
       </c>
       <c r="I10">
-        <v>2.796184503531848</v>
+        <v>1.123957660292206</v>
       </c>
       <c r="J10">
-        <v>0.05901057027856638</v>
+        <v>0.117198122691569</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.955771360444373</v>
+        <v>3.201872476437444</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.815741092575792</v>
+        <v>0.6140313048464634</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1487147302629879</v>
+        <v>0.1294901015588295</v>
       </c>
       <c r="E11">
-        <v>0.07628991915960981</v>
+        <v>0.1074230028043175</v>
       </c>
       <c r="F11">
-        <v>3.557153655922548</v>
+        <v>2.13220447169212</v>
       </c>
       <c r="G11">
-        <v>4.191673945877341</v>
+        <v>1.801041519531822</v>
       </c>
       <c r="H11">
-        <v>2.008149007371884</v>
+        <v>1.36037031347314</v>
       </c>
       <c r="I11">
-        <v>3.000317220850519</v>
+        <v>1.179435728383169</v>
       </c>
       <c r="J11">
-        <v>0.06080815987211707</v>
+        <v>0.1164753792283904</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9.625387753989031</v>
+        <v>3.398035241263329</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.864089725681822</v>
+        <v>0.6287631836173375</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1518143581582905</v>
+        <v>0.1302861776067772</v>
       </c>
       <c r="E12">
-        <v>0.07719328576278173</v>
+        <v>0.1075643761539098</v>
       </c>
       <c r="F12">
-        <v>3.672538540451029</v>
+        <v>2.144660977584863</v>
       </c>
       <c r="G12">
-        <v>4.331382910963526</v>
+        <v>1.820300902672358</v>
       </c>
       <c r="H12">
-        <v>2.070897636236253</v>
+        <v>1.367094518542075</v>
       </c>
       <c r="I12">
-        <v>3.078668076899277</v>
+        <v>1.200509769165251</v>
       </c>
       <c r="J12">
-        <v>0.06155272326288497</v>
+        <v>0.1162176847678964</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.880827640797833</v>
+        <v>3.472246857791902</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.85366116065461</v>
+        <v>0.6255911663774043</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1511445239712188</v>
+        <v>0.1301147866102781</v>
       </c>
       <c r="E13">
-        <v>0.07699835766295848</v>
+        <v>0.1075336502095077</v>
       </c>
       <c r="F13">
-        <v>3.647491346380775</v>
+        <v>2.141963277560819</v>
       </c>
       <c r="G13">
-        <v>4.301076305060292</v>
+        <v>1.816139984041541</v>
       </c>
       <c r="H13">
-        <v>2.057278163290931</v>
+        <v>1.365637832785779</v>
       </c>
       <c r="I13">
-        <v>3.061744186737926</v>
+        <v>1.195968178996836</v>
       </c>
       <c r="J13">
-        <v>0.06138939836327495</v>
+        <v>0.1162724718977302</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.825723831519326</v>
+        <v>3.456267253464517</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.819711736229181</v>
+        <v>0.6152436458147008</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1489687322751294</v>
+        <v>0.1295556214708569</v>
       </c>
       <c r="E14">
-        <v>0.07636407178873839</v>
+        <v>0.107434508021111</v>
       </c>
       <c r="F14">
-        <v>3.566558919137606</v>
+        <v>2.133222539712619</v>
       </c>
       <c r="G14">
-        <v>4.203071165010982</v>
+        <v>1.802620122869087</v>
       </c>
       <c r="H14">
-        <v>2.013264533621054</v>
+        <v>1.360919688555811</v>
       </c>
       <c r="I14">
-        <v>3.006741102216338</v>
+        <v>1.181168186993006</v>
       </c>
       <c r="J14">
-        <v>0.060868089441108</v>
+        <v>0.1164538577804421</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.64636294202586</v>
+        <v>3.404142111901251</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.798961870882465</v>
+        <v>0.6089032808061177</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1476424410849262</v>
+        <v>0.1292129459532845</v>
       </c>
       <c r="E15">
-        <v>0.07597664569205875</v>
+        <v>0.107374597495415</v>
       </c>
       <c r="F15">
-        <v>3.51754775245135</v>
+        <v>2.127912310762724</v>
       </c>
       <c r="G15">
-        <v>4.143661403819351</v>
+        <v>1.794376958503165</v>
       </c>
       <c r="H15">
-        <v>1.986605846472088</v>
+        <v>1.35805454841082</v>
       </c>
       <c r="I15">
-        <v>2.973192255318679</v>
+        <v>1.172111313699901</v>
       </c>
       <c r="J15">
-        <v>0.06055732691770288</v>
+        <v>0.1165670458977672</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>9.536755736293003</v>
+        <v>3.372204642943331</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.680694399883322</v>
+        <v>0.5725355696957877</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1401319589833037</v>
+        <v>0.1272465840316244</v>
       </c>
       <c r="E16">
-        <v>0.07377331874377901</v>
+        <v>0.1070438382892434</v>
       </c>
       <c r="F16">
-        <v>3.244698251013347</v>
+        <v>2.098147143694518</v>
       </c>
       <c r="G16">
-        <v>3.812045183129896</v>
+        <v>1.747718162172049</v>
       </c>
       <c r="H16">
-        <v>1.838124487347699</v>
+        <v>1.342014307554081</v>
       </c>
       <c r="I16">
-        <v>2.782981329729495</v>
+        <v>1.120341245429429</v>
       </c>
       <c r="J16">
-        <v>0.05890160233504815</v>
+        <v>0.1172475912889155</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.912249204443185</v>
+        <v>3.189042982791847</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.608662061645589</v>
+        <v>0.5501953948485152</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1355960194140877</v>
+        <v>0.1260379296844434</v>
       </c>
       <c r="E17">
-        <v>0.07243677455484487</v>
+        <v>0.1068521855490481</v>
       </c>
       <c r="F17">
-        <v>3.083854977075703</v>
+        <v>2.080476159247809</v>
       </c>
       <c r="G17">
-        <v>3.615804985975643</v>
+        <v>1.719605984745783</v>
       </c>
       <c r="H17">
-        <v>1.750536725999382</v>
+        <v>1.332509583381778</v>
       </c>
       <c r="I17">
-        <v>2.667979064908124</v>
+        <v>1.088699283242889</v>
       </c>
       <c r="J17">
-        <v>0.05799137383356623</v>
+        <v>0.117693523274788</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>8.532027034625401</v>
+        <v>3.076555507023528</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.567403087140605</v>
+        <v>0.5373350855594481</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1330101641919796</v>
+        <v>0.1253418740869918</v>
       </c>
       <c r="E18">
-        <v>0.07167360847228821</v>
+        <v>0.1067461074719951</v>
       </c>
       <c r="F18">
-        <v>2.993522078794172</v>
+        <v>2.070526773540792</v>
       </c>
       <c r="G18">
-        <v>3.505323946733967</v>
+        <v>1.703622378289452</v>
       </c>
       <c r="H18">
-        <v>1.701325330069835</v>
+        <v>1.327165009886187</v>
       </c>
       <c r="I18">
-        <v>2.602400920416983</v>
+        <v>1.070542865869086</v>
       </c>
       <c r="J18">
-        <v>0.0575043041488783</v>
+        <v>0.1179604495997282</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>8.314275804929736</v>
+        <v>3.011811037434455</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.553461335678747</v>
+        <v>0.5329789558563505</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1321383286976356</v>
+        <v>0.1251060518932121</v>
       </c>
       <c r="E19">
-        <v>0.0714161725295348</v>
+        <v>0.1067109067300152</v>
       </c>
       <c r="F19">
-        <v>2.963291579155452</v>
+        <v>2.067194738550626</v>
       </c>
       <c r="G19">
-        <v>3.468305341095487</v>
+        <v>1.698242303862429</v>
       </c>
       <c r="H19">
-        <v>1.684853044327951</v>
+        <v>1.325376340398662</v>
       </c>
       <c r="I19">
-        <v>2.580290254297324</v>
+        <v>1.064402845012069</v>
       </c>
       <c r="J19">
-        <v>0.05734544767737759</v>
+        <v>0.1180526177705943</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>8.240700222599912</v>
+        <v>2.989882083526282</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.616311795106952</v>
+        <v>0.5525746680734187</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1360764202889015</v>
+        <v>0.1261666829111689</v>
       </c>
       <c r="E20">
-        <v>0.07257847483963076</v>
+        <v>0.1068721576489651</v>
       </c>
       <c r="F20">
-        <v>3.100746627341891</v>
+        <v>2.082335022261105</v>
       </c>
       <c r="G20">
-        <v>3.636442213796641</v>
+        <v>1.722579297827224</v>
       </c>
       <c r="H20">
-        <v>1.759737281799488</v>
+        <v>1.333508698654015</v>
       </c>
       <c r="I20">
-        <v>2.680161342664277</v>
+        <v>1.092063155180384</v>
       </c>
       <c r="J20">
-        <v>0.05808444489158404</v>
+        <v>0.1176449724601554</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>8.572402213386937</v>
+        <v>3.088534630612799</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.829673974094305</v>
+        <v>0.6182834245065578</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1496064498320422</v>
+        <v>0.1297198973812215</v>
       </c>
       <c r="E21">
-        <v>0.07655014961445872</v>
+        <v>0.1074634583393994</v>
       </c>
       <c r="F21">
-        <v>3.590212040083202</v>
+        <v>2.135780782954583</v>
       </c>
       <c r="G21">
-        <v>4.231726472683306</v>
+        <v>1.806583272897313</v>
       </c>
       <c r="H21">
-        <v>2.026128877881149</v>
+        <v>1.36230033564965</v>
       </c>
       <c r="I21">
-        <v>3.022866887640973</v>
+        <v>1.185513522154864</v>
       </c>
       <c r="J21">
-        <v>0.06101941298578595</v>
+        <v>0.1164001459617126</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>9.698991314618382</v>
+        <v>3.41945447501206</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.971085340626473</v>
+        <v>0.6611292648431402</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1587286523633509</v>
+        <v>0.1320344758270693</v>
       </c>
       <c r="E22">
-        <v>0.07919482487276142</v>
+        <v>0.1078865208486874</v>
       </c>
       <c r="F22">
-        <v>3.934649664919078</v>
+        <v>2.172662451919109</v>
       </c>
       <c r="G22">
-        <v>4.647878980704604</v>
+        <v>1.86318590354648</v>
       </c>
       <c r="H22">
-        <v>2.213367112633023</v>
+        <v>1.382227331719434</v>
       </c>
       <c r="I22">
-        <v>3.253063776900049</v>
+        <v>1.246971619648363</v>
       </c>
       <c r="J22">
-        <v>0.0633140861958168</v>
+        <v>0.115679819548987</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>10.44642879710597</v>
+        <v>3.635315004102324</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.895408376956567</v>
+        <v>0.6382707576034647</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1538302398236198</v>
+        <v>0.1307998372987242</v>
       </c>
       <c r="E23">
-        <v>0.07777889411063654</v>
+        <v>0.1076573930970852</v>
       </c>
       <c r="F23">
-        <v>3.748289432183128</v>
+        <v>2.152797384552031</v>
       </c>
       <c r="G23">
-        <v>4.42297194134386</v>
+        <v>1.832818064641231</v>
       </c>
       <c r="H23">
-        <v>2.112081765816413</v>
+        <v>1.371489326638255</v>
       </c>
       <c r="I23">
-        <v>3.129572360661143</v>
+        <v>1.214135314719329</v>
       </c>
       <c r="J23">
-        <v>0.06205217536444962</v>
+        <v>0.1160557253037027</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>10.04633692529683</v>
+        <v>3.520144926234821</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.612852877421119</v>
+        <v>0.551499050468351</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1358591635332118</v>
+        <v>0.1261084772664418</v>
       </c>
       <c r="E24">
-        <v>0.07251439584292996</v>
+        <v>0.1068631154701478</v>
       </c>
       <c r="F24">
-        <v>3.09310330535348</v>
+        <v>2.08149397696522</v>
       </c>
       <c r="G24">
-        <v>3.627104893829824</v>
+        <v>1.721234507640474</v>
       </c>
       <c r="H24">
-        <v>1.755574175435356</v>
+        <v>1.33305662566147</v>
       </c>
       <c r="I24">
-        <v>2.674652070660372</v>
+        <v>1.090542239736394</v>
       </c>
       <c r="J24">
-        <v>0.05804225515105799</v>
+        <v>0.1176668894131438</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>8.554145995870158</v>
+        <v>3.083119098891729</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.314474939360423</v>
+        <v>0.4574888464126445</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1173344083508141</v>
+        <v>0.1210147801208876</v>
       </c>
       <c r="E25">
-        <v>0.06704857067482095</v>
+        <v>0.1061654644679102</v>
       </c>
       <c r="F25">
-        <v>2.467923030949038</v>
+        <v>2.012758092213659</v>
       </c>
       <c r="G25">
-        <v>2.858025752236102</v>
+        <v>1.607948732219057</v>
       </c>
       <c r="H25">
-        <v>1.414673343215043</v>
+        <v>1.296264018590136</v>
       </c>
       <c r="I25">
-        <v>2.205205527409092</v>
+        <v>0.9588801921462817</v>
       </c>
       <c r="J25">
-        <v>0.05509022236198291</v>
+        <v>0.1198037097811095</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.97962571473002</v>
+        <v>2.610018735744319</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3879113849618818</v>
+        <v>1.098359177368422</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1172343580438522</v>
+        <v>0.1041485087325142</v>
       </c>
       <c r="E2">
-        <v>0.1057905508343744</v>
+        <v>0.06320499124361945</v>
       </c>
       <c r="F2">
-        <v>1.96894296796097</v>
+        <v>2.056940244630653</v>
       </c>
       <c r="G2">
-        <v>1.530350033841842</v>
+        <v>2.345144482349696</v>
       </c>
       <c r="H2">
-        <v>1.273064455531596</v>
+        <v>1.190105791269019</v>
       </c>
       <c r="I2">
-        <v>0.8633499675594578</v>
+        <v>1.872789464698599</v>
       </c>
       <c r="J2">
-        <v>0.1217188450379609</v>
+        <v>0.05387296860066471</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.260233900871953</v>
+        <v>5.83900663551492</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3405351917551798</v>
+        <v>0.953334229819859</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1146530764252347</v>
+        <v>0.09539037130446815</v>
       </c>
       <c r="E3">
-        <v>0.1056240535386408</v>
+        <v>0.06071065207586201</v>
       </c>
       <c r="F3">
-        <v>1.943371581774969</v>
+        <v>1.801146676620036</v>
       </c>
       <c r="G3">
-        <v>1.481254045853518</v>
+        <v>2.021797479328285</v>
       </c>
       <c r="H3">
-        <v>1.259710399184684</v>
+        <v>1.050120372850898</v>
       </c>
       <c r="I3">
-        <v>0.7994885199162667</v>
+        <v>1.653707781051367</v>
       </c>
       <c r="J3">
-        <v>0.123229407369859</v>
+        <v>0.05355195577251592</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.02229958432261</v>
+        <v>5.073209440315509</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3113372245960022</v>
+        <v>0.8647746126192715</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1130585181160626</v>
+        <v>0.09007338817647792</v>
       </c>
       <c r="E4">
-        <v>0.10556539109486</v>
+        <v>0.05923270249710555</v>
       </c>
       <c r="F4">
-        <v>1.929666881113633</v>
+        <v>1.653119983167059</v>
       </c>
       <c r="G4">
-        <v>1.452789535650027</v>
+        <v>1.832760792558787</v>
       </c>
       <c r="H4">
-        <v>1.252660551085398</v>
+        <v>0.9690290860851576</v>
       </c>
       <c r="I4">
-        <v>0.7607132582971019</v>
+        <v>1.521672982546562</v>
       </c>
       <c r="J4">
-        <v>0.1242616357717559</v>
+        <v>0.05357711473569537</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.875782866712257</v>
+        <v>4.605363259321635</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2994118902553851</v>
+        <v>0.8287788946135493</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1124062898826423</v>
+        <v>0.08791846463514474</v>
       </c>
       <c r="E5">
-        <v>0.1055525014138894</v>
+        <v>0.05864377204822802</v>
       </c>
       <c r="F5">
-        <v>1.924578857209497</v>
+        <v>1.594784696475202</v>
       </c>
       <c r="G5">
-        <v>1.441606713941752</v>
+        <v>1.757796078937929</v>
       </c>
       <c r="H5">
-        <v>1.250074157579064</v>
+        <v>0.937054900285375</v>
       </c>
       <c r="I5">
-        <v>0.745022342937034</v>
+        <v>1.468416267218316</v>
       </c>
       <c r="J5">
-        <v>0.1247085946184008</v>
+        <v>0.05363973118807053</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.815972396230194</v>
+        <v>4.415151671564999</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2974300846073277</v>
+        <v>0.8228066520881896</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.112297840723528</v>
+        <v>0.08756126168667322</v>
       </c>
       <c r="E6">
-        <v>0.1055510281983896</v>
+        <v>0.05854678286239157</v>
       </c>
       <c r="F6">
-        <v>1.923763845841862</v>
+        <v>1.585210452173769</v>
       </c>
       <c r="G6">
-        <v>1.439774810771951</v>
+        <v>1.745464562359473</v>
       </c>
       <c r="H6">
-        <v>1.249661915978663</v>
+        <v>0.9318062138655705</v>
       </c>
       <c r="I6">
-        <v>0.7424235636032961</v>
+        <v>1.45960409335845</v>
       </c>
       <c r="J6">
-        <v>0.1247844007682311</v>
+        <v>0.05365319422142889</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.806034737224763</v>
+        <v>4.383589600692062</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3111765037970997</v>
+        <v>0.8642888216161282</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1130497317988315</v>
+        <v>0.0900442825871437</v>
       </c>
       <c r="E7">
-        <v>0.1055651725769771</v>
+        <v>0.05922470610911645</v>
       </c>
       <c r="F7">
-        <v>1.929596257751442</v>
+        <v>1.652325561238129</v>
       </c>
       <c r="G7">
-        <v>1.452637040770469</v>
+        <v>1.831741809896926</v>
       </c>
       <c r="H7">
-        <v>1.252624513548483</v>
+        <v>0.9685937210753366</v>
       </c>
       <c r="I7">
-        <v>0.7605011974577565</v>
+        <v>1.520952617289481</v>
       </c>
       <c r="J7">
-        <v>0.1242675570800671</v>
+        <v>0.05357775160971201</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.874976657788153</v>
+        <v>4.602796408684767</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3715988893716826</v>
+        <v>1.04823509031695</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1163463270003788</v>
+        <v>0.1011139105649619</v>
       </c>
       <c r="E8">
-        <v>0.105724135804639</v>
+        <v>0.06233374497934463</v>
       </c>
       <c r="F8">
-        <v>1.959708466424516</v>
+        <v>1.966686443959418</v>
       </c>
       <c r="G8">
-        <v>1.513069330320747</v>
+        <v>2.231478484482693</v>
       </c>
       <c r="H8">
-        <v>1.268219797266482</v>
+        <v>1.140733506899863</v>
       </c>
       <c r="I8">
-        <v>0.8412404382323899</v>
+        <v>1.796686852122875</v>
       </c>
       <c r="J8">
-        <v>0.1222179361956108</v>
+        <v>0.05371392662950569</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.178283811443009</v>
+        <v>5.574372406877188</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4892119223098348</v>
+        <v>1.414311423138429</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.122735172982253</v>
+        <v>0.1234877345596388</v>
       </c>
       <c r="E9">
-        <v>0.1063790465718206</v>
+        <v>0.06886139909600786</v>
       </c>
       <c r="F9">
-        <v>2.034840746517204</v>
+        <v>2.66963578798223</v>
       </c>
       <c r="G9">
-        <v>1.645188320169922</v>
+        <v>3.107425105696791</v>
       </c>
       <c r="H9">
-        <v>1.308045399028856</v>
+        <v>1.524750844908027</v>
       </c>
       <c r="I9">
-        <v>1.003011091599475</v>
+        <v>2.360979485697484</v>
       </c>
       <c r="J9">
-        <v>0.11903074198338</v>
+        <v>0.0559224561036693</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.769609403773728</v>
+        <v>7.506429522058369</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5750832636003622</v>
+        <v>1.688938479045902</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1273843823650793</v>
+        <v>0.1406528923744332</v>
       </c>
       <c r="E10">
-        <v>0.1070662689437363</v>
+        <v>0.07392658260822671</v>
       </c>
       <c r="F10">
-        <v>2.100192732032156</v>
+        <v>3.263362664256903</v>
       </c>
       <c r="G10">
-        <v>1.750951288768334</v>
+        <v>3.834779304444311</v>
       </c>
       <c r="H10">
-        <v>1.343115504679076</v>
+        <v>1.848285351229492</v>
       </c>
       <c r="I10">
-        <v>1.123957660292206</v>
+        <v>2.796184503531819</v>
       </c>
       <c r="J10">
-        <v>0.117198122691569</v>
+        <v>0.0590105702785948</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.201872476437444</v>
+        <v>8.955771360444373</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6140313048464634</v>
+        <v>1.815741092575564</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1294901015588295</v>
+        <v>0.148714730262995</v>
       </c>
       <c r="E11">
-        <v>0.1074230028043175</v>
+        <v>0.07628991915967021</v>
       </c>
       <c r="F11">
-        <v>2.13220447169212</v>
+        <v>3.557153655922548</v>
       </c>
       <c r="G11">
-        <v>1.801041519531822</v>
+        <v>4.191673945877341</v>
       </c>
       <c r="H11">
-        <v>1.36037031347314</v>
+        <v>2.008149007372026</v>
       </c>
       <c r="I11">
-        <v>1.179435728383169</v>
+        <v>3.000317220850505</v>
       </c>
       <c r="J11">
-        <v>0.1164753792283904</v>
+        <v>0.06080815987219523</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.398035241263329</v>
+        <v>9.625387753989031</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6287631836173375</v>
+        <v>1.864089725682049</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1302861776067772</v>
+        <v>0.1518143581582621</v>
       </c>
       <c r="E12">
-        <v>0.1075643761539098</v>
+        <v>0.07719328576278173</v>
       </c>
       <c r="F12">
-        <v>2.144660977584863</v>
+        <v>3.672538540451058</v>
       </c>
       <c r="G12">
-        <v>1.820300902672358</v>
+        <v>4.331382910963498</v>
       </c>
       <c r="H12">
-        <v>1.367094518542075</v>
+        <v>2.070897636236253</v>
       </c>
       <c r="I12">
-        <v>1.200509769165251</v>
+        <v>3.078668076899277</v>
       </c>
       <c r="J12">
-        <v>0.1162176847678964</v>
+        <v>0.06155272326274996</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.472246857791902</v>
+        <v>9.880827640797833</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6255911663774043</v>
+        <v>1.853661160655008</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1301147866102781</v>
+        <v>0.1511445239711193</v>
       </c>
       <c r="E13">
-        <v>0.1075336502095077</v>
+        <v>0.07699835766294427</v>
       </c>
       <c r="F13">
-        <v>2.141963277560819</v>
+        <v>3.647491346380775</v>
       </c>
       <c r="G13">
-        <v>1.816139984041541</v>
+        <v>4.30107630506032</v>
       </c>
       <c r="H13">
-        <v>1.365637832785779</v>
+        <v>2.057278163290817</v>
       </c>
       <c r="I13">
-        <v>1.195968178996836</v>
+        <v>3.061744186737897</v>
       </c>
       <c r="J13">
-        <v>0.1162724718977302</v>
+        <v>0.0613893983633389</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.456267253464517</v>
+        <v>9.825723831519326</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6152436458147008</v>
+        <v>1.819711736229351</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1295556214708569</v>
+        <v>0.148968732275236</v>
       </c>
       <c r="E14">
-        <v>0.107434508021111</v>
+        <v>0.07636407178873483</v>
       </c>
       <c r="F14">
-        <v>2.133222539712619</v>
+        <v>3.566558919137606</v>
       </c>
       <c r="G14">
-        <v>1.802620122869087</v>
+        <v>4.203071165010897</v>
       </c>
       <c r="H14">
-        <v>1.360919688555811</v>
+        <v>2.013264533621054</v>
       </c>
       <c r="I14">
-        <v>1.181168186993006</v>
+        <v>3.006741102216338</v>
       </c>
       <c r="J14">
-        <v>0.1164538577804421</v>
+        <v>0.0608680894409801</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.404142111901251</v>
+        <v>9.646362942025888</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6089032808061177</v>
+        <v>1.798961870883119</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1292129459532845</v>
+        <v>0.1476424410850328</v>
       </c>
       <c r="E15">
-        <v>0.107374597495415</v>
+        <v>0.07597664569202678</v>
       </c>
       <c r="F15">
-        <v>2.127912310762724</v>
+        <v>3.517547752451378</v>
       </c>
       <c r="G15">
-        <v>1.794376958503165</v>
+        <v>4.143661403819323</v>
       </c>
       <c r="H15">
-        <v>1.35805454841082</v>
+        <v>1.986605846471974</v>
       </c>
       <c r="I15">
-        <v>1.172111313699901</v>
+        <v>2.973192255318651</v>
       </c>
       <c r="J15">
-        <v>0.1165670458977672</v>
+        <v>0.06055732691774551</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.372204642943331</v>
+        <v>9.536755736292946</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5725355696957877</v>
+        <v>1.680694399883322</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1272465840316244</v>
+        <v>0.1401319589834173</v>
       </c>
       <c r="E16">
-        <v>0.1070438382892434</v>
+        <v>0.07377331874377901</v>
       </c>
       <c r="F16">
-        <v>2.098147143694518</v>
+        <v>3.24469825101329</v>
       </c>
       <c r="G16">
-        <v>1.747718162172049</v>
+        <v>3.812045183129896</v>
       </c>
       <c r="H16">
-        <v>1.342014307554081</v>
+        <v>1.838124487347727</v>
       </c>
       <c r="I16">
-        <v>1.120341245429429</v>
+        <v>2.782981329729523</v>
       </c>
       <c r="J16">
-        <v>0.1172475912889155</v>
+        <v>0.05890160233501263</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.189042982791847</v>
+        <v>8.9122492044431</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5501953948485152</v>
+        <v>1.608662061645646</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1260379296844434</v>
+        <v>0.1355960194139882</v>
       </c>
       <c r="E17">
-        <v>0.1068521855490481</v>
+        <v>0.07243677455485908</v>
       </c>
       <c r="F17">
-        <v>2.080476159247809</v>
+        <v>3.083854977075674</v>
       </c>
       <c r="G17">
-        <v>1.719605984745783</v>
+        <v>3.6158049859757</v>
       </c>
       <c r="H17">
-        <v>1.332509583381778</v>
+        <v>1.750536725999382</v>
       </c>
       <c r="I17">
-        <v>1.088699283242889</v>
+        <v>2.66797906490811</v>
       </c>
       <c r="J17">
-        <v>0.117693523274788</v>
+        <v>0.05799137383356623</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.076555507023528</v>
+        <v>8.532027034625429</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5373350855594481</v>
+        <v>1.567403087140463</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1253418740869918</v>
+        <v>0.1330101641921075</v>
       </c>
       <c r="E18">
-        <v>0.1067461074719951</v>
+        <v>0.07167360847229176</v>
       </c>
       <c r="F18">
-        <v>2.070526773540792</v>
+        <v>2.993522078794172</v>
       </c>
       <c r="G18">
-        <v>1.703622378289452</v>
+        <v>3.50532394673391</v>
       </c>
       <c r="H18">
-        <v>1.327165009886187</v>
+        <v>1.701325330069864</v>
       </c>
       <c r="I18">
-        <v>1.070542865869086</v>
+        <v>2.602400920416954</v>
       </c>
       <c r="J18">
-        <v>0.1179604495997282</v>
+        <v>0.05750430414893515</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.011811037434455</v>
+        <v>8.314275804929764</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5329789558563505</v>
+        <v>1.55346133567852</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1251060518932121</v>
+        <v>0.1321383286976356</v>
       </c>
       <c r="E19">
-        <v>0.1067109067300152</v>
+        <v>0.0714161725295952</v>
       </c>
       <c r="F19">
-        <v>2.067194738550626</v>
+        <v>2.963291579155452</v>
       </c>
       <c r="G19">
-        <v>1.698242303862429</v>
+        <v>3.468305341095572</v>
       </c>
       <c r="H19">
-        <v>1.325376340398662</v>
+        <v>1.684853044327951</v>
       </c>
       <c r="I19">
-        <v>1.064402845012069</v>
+        <v>2.580290254297296</v>
       </c>
       <c r="J19">
-        <v>0.1180526177705943</v>
+        <v>0.05734544767743444</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.989882083526282</v>
+        <v>8.240700222599912</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5525746680734187</v>
+        <v>1.616311795106952</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1261666829111689</v>
+        <v>0.1360764202888944</v>
       </c>
       <c r="E20">
-        <v>0.1068721576489651</v>
+        <v>0.07257847483963076</v>
       </c>
       <c r="F20">
-        <v>2.082335022261105</v>
+        <v>3.100746627341891</v>
       </c>
       <c r="G20">
-        <v>1.722579297827224</v>
+        <v>3.636442213796698</v>
       </c>
       <c r="H20">
-        <v>1.333508698654015</v>
+        <v>1.759737281799488</v>
       </c>
       <c r="I20">
-        <v>1.092063155180384</v>
+        <v>2.680161342664263</v>
       </c>
       <c r="J20">
-        <v>0.1176449724601554</v>
+        <v>0.05808444489168352</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.088534630612799</v>
+        <v>8.572402213386908</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6182834245065578</v>
+        <v>1.829673974093936</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1297198973812215</v>
+        <v>0.1496064498320493</v>
       </c>
       <c r="E21">
-        <v>0.1074634583393994</v>
+        <v>0.07655014961444806</v>
       </c>
       <c r="F21">
-        <v>2.135780782954583</v>
+        <v>3.59021204008323</v>
       </c>
       <c r="G21">
-        <v>1.806583272897313</v>
+        <v>4.231726472683278</v>
       </c>
       <c r="H21">
-        <v>1.36230033564965</v>
+        <v>2.026128877881064</v>
       </c>
       <c r="I21">
-        <v>1.185513522154864</v>
+        <v>3.022866887640973</v>
       </c>
       <c r="J21">
-        <v>0.1164001459617126</v>
+        <v>0.06101941298589963</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.41945447501206</v>
+        <v>9.698991314618382</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6611292648431402</v>
+        <v>1.971085340626956</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1320344758270693</v>
+        <v>0.158728652363223</v>
       </c>
       <c r="E22">
-        <v>0.1078865208486874</v>
+        <v>0.07919482487269391</v>
       </c>
       <c r="F22">
-        <v>2.172662451919109</v>
+        <v>3.934649664919078</v>
       </c>
       <c r="G22">
-        <v>1.86318590354648</v>
+        <v>4.647878980704604</v>
       </c>
       <c r="H22">
-        <v>1.382227331719434</v>
+        <v>2.213367112633136</v>
       </c>
       <c r="I22">
-        <v>1.246971619648363</v>
+        <v>3.253063776900021</v>
       </c>
       <c r="J22">
-        <v>0.115679819548987</v>
+        <v>0.0633140861959518</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.635315004102324</v>
+        <v>10.44642879710594</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6382707576034647</v>
+        <v>1.895408376956368</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1307998372987242</v>
+        <v>0.1538302398234066</v>
       </c>
       <c r="E23">
-        <v>0.1076573930970852</v>
+        <v>0.07777889411063299</v>
       </c>
       <c r="F23">
-        <v>2.152797384552031</v>
+        <v>3.748289432183128</v>
       </c>
       <c r="G23">
-        <v>1.832818064641231</v>
+        <v>4.422971941343803</v>
       </c>
       <c r="H23">
-        <v>1.371489326638255</v>
+        <v>2.112081765816441</v>
       </c>
       <c r="I23">
-        <v>1.214135314719329</v>
+        <v>3.129572360661143</v>
       </c>
       <c r="J23">
-        <v>0.1160557253037027</v>
+        <v>0.06205217536451357</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.520144926234821</v>
+        <v>10.0463369252968</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.551499050468351</v>
+        <v>1.612852877421147</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1261084772664418</v>
+        <v>0.1358591635333113</v>
       </c>
       <c r="E24">
-        <v>0.1068631154701478</v>
+        <v>0.07251439584291575</v>
       </c>
       <c r="F24">
-        <v>2.08149397696522</v>
+        <v>3.093103305353509</v>
       </c>
       <c r="G24">
-        <v>1.721234507640474</v>
+        <v>3.627104893829767</v>
       </c>
       <c r="H24">
-        <v>1.33305662566147</v>
+        <v>1.755574175435413</v>
       </c>
       <c r="I24">
-        <v>1.090542239736394</v>
+        <v>2.674652070660386</v>
       </c>
       <c r="J24">
-        <v>0.1176668894131438</v>
+        <v>0.0580422551510793</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.083119098891729</v>
+        <v>8.554145995870215</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4574888464126445</v>
+        <v>1.314474939359798</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1210147801208876</v>
+        <v>0.1173344083510202</v>
       </c>
       <c r="E25">
-        <v>0.1061654644679102</v>
+        <v>0.06704857067482095</v>
       </c>
       <c r="F25">
-        <v>2.012758092213659</v>
+        <v>2.467923030949066</v>
       </c>
       <c r="G25">
-        <v>1.607948732219057</v>
+        <v>2.858025752236045</v>
       </c>
       <c r="H25">
-        <v>1.296264018590136</v>
+        <v>1.414673343215043</v>
       </c>
       <c r="I25">
-        <v>0.9588801921462817</v>
+        <v>2.205205527409092</v>
       </c>
       <c r="J25">
-        <v>0.1198037097811095</v>
+        <v>0.0550902223620291</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.610018735744319</v>
+        <v>6.97962571473002</v>
       </c>
       <c r="N25">
         <v>0</v>
